--- a/giovinazzo-dati-covid-2020-11-14.xlsx
+++ b/giovinazzo-dati-covid-2020-11-14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/file_Thomas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denic\OneDrive\Documents\Repositories\dati\giovinazzo-dati-covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60A91D6-F955-184B-A8B9-64F27286AA1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A1B806-2C92-41A6-9F81-4FD4F3020425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="35420" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -204,6 +204,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2400"/>
+              <a:t>Attualmente positivi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -217,7 +242,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -269,7 +294,7 @@
             <c:numRef>
               <c:f>attualmente_positivi!$A$2:$A$126</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="125"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
@@ -1053,7 +1078,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1075,7 +1100,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1133,7 +1158,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1160,6 +1185,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1219,6 +1275,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2400"/>
+              <a:t>Totale contagiati ed incremento giornaliero</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1232,7 +1313,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1284,7 +1365,7 @@
             <c:numRef>
               <c:f>totale_contagiati!$A$2:$A$109</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
@@ -1944,6 +2025,699 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7992-41AA-B684-A5E5A65356E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>totale_contagiati!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>incremento giornaliero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>totale_contagiati!$A$2:$A$109</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="1">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>totale_contagiati!$C$2:$C$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D41B-4738-9E9D-366C4A42D6C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1988,7 +2762,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2047,7 +2821,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2074,6 +2848,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3640,18 +4445,18 @@
   <dimension ref="A1:B126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3659,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43922</v>
       </c>
@@ -3667,7 +4472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43923</v>
       </c>
@@ -3675,7 +4480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43925</v>
       </c>
@@ -3683,7 +4488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43927</v>
       </c>
@@ -3691,7 +4496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43928</v>
       </c>
@@ -3699,7 +4504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43929</v>
       </c>
@@ -3707,7 +4512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43930</v>
       </c>
@@ -3715,7 +4520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43931</v>
       </c>
@@ -3723,7 +4528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43932</v>
       </c>
@@ -3731,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43934</v>
       </c>
@@ -3739,7 +4544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43935</v>
       </c>
@@ -3747,7 +4552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43936</v>
       </c>
@@ -3755,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43937</v>
       </c>
@@ -3763,7 +4568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43938</v>
       </c>
@@ -3771,7 +4576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43939</v>
       </c>
@@ -3779,7 +4584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43940</v>
       </c>
@@ -3787,7 +4592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43941</v>
       </c>
@@ -3795,7 +4600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43942</v>
       </c>
@@ -3803,7 +4608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43943</v>
       </c>
@@ -3811,7 +4616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43945</v>
       </c>
@@ -3819,7 +4624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43946</v>
       </c>
@@ -3827,7 +4632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43947</v>
       </c>
@@ -3835,7 +4640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43949</v>
       </c>
@@ -3843,7 +4648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43950</v>
       </c>
@@ -3851,7 +4656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43951</v>
       </c>
@@ -3859,7 +4664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43952</v>
       </c>
@@ -3867,7 +4672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43953</v>
       </c>
@@ -3875,7 +4680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43955</v>
       </c>
@@ -3883,7 +4688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43956</v>
       </c>
@@ -3891,7 +4696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43958</v>
       </c>
@@ -3899,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43959</v>
       </c>
@@ -3907,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43960</v>
       </c>
@@ -3915,7 +4720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43961</v>
       </c>
@@ -3923,7 +4728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43962</v>
       </c>
@@ -3931,7 +4736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43963</v>
       </c>
@@ -3939,7 +4744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43964</v>
       </c>
@@ -3947,7 +4752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43967</v>
       </c>
@@ -3955,7 +4760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43968</v>
       </c>
@@ -3963,7 +4768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43969</v>
       </c>
@@ -3971,7 +4776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43970</v>
       </c>
@@ -3979,7 +4784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43971</v>
       </c>
@@ -3987,7 +4792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43972</v>
       </c>
@@ -3995,7 +4800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43973</v>
       </c>
@@ -4003,7 +4808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43974</v>
       </c>
@@ -4011,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43975</v>
       </c>
@@ -4019,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43977</v>
       </c>
@@ -4027,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43978</v>
       </c>
@@ -4035,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43979</v>
       </c>
@@ -4043,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43980</v>
       </c>
@@ -4051,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>43981</v>
       </c>
@@ -4059,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>43982</v>
       </c>
@@ -4067,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>43983</v>
       </c>
@@ -4075,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43984</v>
       </c>
@@ -4083,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43985</v>
       </c>
@@ -4091,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>43987</v>
       </c>
@@ -4099,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>43988</v>
       </c>
@@ -4107,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44029</v>
       </c>
@@ -4115,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44030</v>
       </c>
@@ -4123,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44033</v>
       </c>
@@ -4131,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44036</v>
       </c>
@@ -4139,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44038</v>
       </c>
@@ -4147,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44053</v>
       </c>
@@ -4155,7 +4960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44055</v>
       </c>
@@ -4163,7 +4968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44056</v>
       </c>
@@ -4171,7 +4976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44057</v>
       </c>
@@ -4179,7 +4984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44058</v>
       </c>
@@ -4187,7 +4992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44059</v>
       </c>
@@ -4195,7 +5000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44060</v>
       </c>
@@ -4203,7 +5008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44061</v>
       </c>
@@ -4211,7 +5016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44063</v>
       </c>
@@ -4219,7 +5024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44064</v>
       </c>
@@ -4227,7 +5032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44065</v>
       </c>
@@ -4235,7 +5040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44066</v>
       </c>
@@ -4243,7 +5048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44067</v>
       </c>
@@ -4251,7 +5056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44068</v>
       </c>
@@ -4259,7 +5064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44069</v>
       </c>
@@ -4267,7 +5072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>44070</v>
       </c>
@@ -4275,7 +5080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44072</v>
       </c>
@@ -4283,7 +5088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44074</v>
       </c>
@@ -4291,7 +5096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44076</v>
       </c>
@@ -4299,7 +5104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44079</v>
       </c>
@@ -4307,7 +5112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44080</v>
       </c>
@@ -4315,7 +5120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44082</v>
       </c>
@@ -4323,7 +5128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44083</v>
       </c>
@@ -4331,7 +5136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>44084</v>
       </c>
@@ -4339,7 +5144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>44086</v>
       </c>
@@ -4347,7 +5152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>44087</v>
       </c>
@@ -4355,7 +5160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44088</v>
       </c>
@@ -4363,7 +5168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>44090</v>
       </c>
@@ -4371,7 +5176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>44094</v>
       </c>
@@ -4379,7 +5184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>44095</v>
       </c>
@@ -4387,7 +5192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>44098</v>
       </c>
@@ -4395,7 +5200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>44100</v>
       </c>
@@ -4403,7 +5208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44102</v>
       </c>
@@ -4411,7 +5216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44103</v>
       </c>
@@ -4419,7 +5224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44104</v>
       </c>
@@ -4427,7 +5232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44106</v>
       </c>
@@ -4435,7 +5240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44107</v>
       </c>
@@ -4443,7 +5248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44109</v>
       </c>
@@ -4451,7 +5256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44111</v>
       </c>
@@ -4459,7 +5264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44112</v>
       </c>
@@ -4467,7 +5272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44114</v>
       </c>
@@ -4475,7 +5280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>44115</v>
       </c>
@@ -4483,7 +5288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>44118</v>
       </c>
@@ -4491,7 +5296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>44119</v>
       </c>
@@ -4499,7 +5304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>44122</v>
       </c>
@@ -4507,7 +5312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44125</v>
       </c>
@@ -4515,7 +5320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44126</v>
       </c>
@@ -4523,7 +5328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44128</v>
       </c>
@@ -4531,7 +5336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>44129</v>
       </c>
@@ -4539,7 +5344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>44130</v>
       </c>
@@ -4547,7 +5352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>44131</v>
       </c>
@@ -4555,7 +5360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>44133</v>
       </c>
@@ -4563,7 +5368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>44135</v>
       </c>
@@ -4571,7 +5376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>44136</v>
       </c>
@@ -4579,7 +5384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>44137</v>
       </c>
@@ -4587,7 +5392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>44138</v>
       </c>
@@ -4595,7 +5400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>44139</v>
       </c>
@@ -4603,7 +5408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>44140</v>
       </c>
@@ -4611,7 +5416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>44141</v>
       </c>
@@ -4619,7 +5424,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>44142</v>
       </c>
@@ -4627,7 +5432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>44144</v>
       </c>
@@ -4635,7 +5440,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>44147</v>
       </c>
@@ -4643,7 +5448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>44149</v>
       </c>
@@ -4651,7 +5456,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
     </row>
   </sheetData>
@@ -4666,19 +5471,19 @@
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V40" sqref="V40"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="14" style="4" customWidth="1"/>
-    <col min="4" max="13" width="9.1640625" style="4"/>
+    <col min="4" max="13" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4701,7 +5506,7 @@
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4736,7 +5541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43922</v>
       </c>
@@ -4777,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43923</v>
       </c>
@@ -4818,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43925</v>
       </c>
@@ -4859,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43928</v>
       </c>
@@ -4900,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43929</v>
       </c>
@@ -4941,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43930</v>
       </c>
@@ -4982,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43931</v>
       </c>
@@ -5023,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43934</v>
       </c>
@@ -5064,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43935</v>
       </c>
@@ -5105,7 +5910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43936</v>
       </c>
@@ -5146,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43937</v>
       </c>
@@ -5187,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43938</v>
       </c>
@@ -5228,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43939</v>
       </c>
@@ -5269,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43940</v>
       </c>
@@ -5310,7 +6115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43941</v>
       </c>
@@ -5351,7 +6156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43942</v>
       </c>
@@ -5392,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43943</v>
       </c>
@@ -5433,7 +6238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43945</v>
       </c>
@@ -5474,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43946</v>
       </c>
@@ -5515,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43947</v>
       </c>
@@ -5556,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43949</v>
       </c>
@@ -5597,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43950</v>
       </c>
@@ -5638,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43951</v>
       </c>
@@ -5679,7 +6484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43952</v>
       </c>
@@ -5720,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43953</v>
       </c>
@@ -5761,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43955</v>
       </c>
@@ -5802,7 +6607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43956</v>
       </c>
@@ -5843,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43958</v>
       </c>
@@ -5884,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43959</v>
       </c>
@@ -5925,7 +6730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43960</v>
       </c>
@@ -5966,7 +6771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43961</v>
       </c>
@@ -6007,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43962</v>
       </c>
@@ -6048,7 +6853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43963</v>
       </c>
@@ -6089,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43964</v>
       </c>
@@ -6130,7 +6935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43967</v>
       </c>
@@ -6171,7 +6976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43968</v>
       </c>
@@ -6212,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43969</v>
       </c>
@@ -6253,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43970</v>
       </c>
@@ -6294,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43971</v>
       </c>
@@ -6335,7 +7140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43972</v>
       </c>
@@ -6376,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43973</v>
       </c>
@@ -6417,7 +7222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43980</v>
       </c>
@@ -6458,7 +7263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44029</v>
       </c>
@@ -6499,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44053</v>
       </c>
@@ -6540,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44055</v>
       </c>
@@ -6581,7 +7386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44056</v>
       </c>
@@ -6622,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44057</v>
       </c>
@@ -6663,7 +7468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44058</v>
       </c>
@@ -6704,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44059</v>
       </c>
@@ -6745,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44060</v>
       </c>
@@ -6786,7 +7591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>44061</v>
       </c>
@@ -6827,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>44063</v>
       </c>
@@ -6868,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>44064</v>
       </c>
@@ -6909,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>44065</v>
       </c>
@@ -6950,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>44066</v>
       </c>
@@ -6991,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44067</v>
       </c>
@@ -7032,7 +7837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44068</v>
       </c>
@@ -7073,7 +7878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44069</v>
       </c>
@@ -7114,7 +7919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44070</v>
       </c>
@@ -7155,7 +7960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44072</v>
       </c>
@@ -7196,7 +8001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44074</v>
       </c>
@@ -7237,7 +8042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44076</v>
       </c>
@@ -7278,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44077</v>
       </c>
@@ -7319,7 +8124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44078</v>
       </c>
@@ -7360,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44079</v>
       </c>
@@ -7401,7 +8206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44080</v>
       </c>
@@ -7442,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44082</v>
       </c>
@@ -7483,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44083</v>
       </c>
@@ -7524,7 +8329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44084</v>
       </c>
@@ -7565,7 +8370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44086</v>
       </c>
@@ -7606,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44087</v>
       </c>
@@ -7647,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44088</v>
       </c>
@@ -7688,7 +8493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44090</v>
       </c>
@@ -7729,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44094</v>
       </c>
@@ -7770,7 +8575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44095</v>
       </c>
@@ -7811,7 +8616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>44098</v>
       </c>
@@ -7852,7 +8657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44102</v>
       </c>
@@ -7893,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44103</v>
       </c>
@@ -7934,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44104</v>
       </c>
@@ -7975,7 +8780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44106</v>
       </c>
@@ -8016,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44107</v>
       </c>
@@ -8057,7 +8862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44109</v>
       </c>
@@ -8098,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44111</v>
       </c>
@@ -8139,7 +8944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>44112</v>
       </c>
@@ -8180,7 +8985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>44114</v>
       </c>
@@ -8221,7 +9026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>44115</v>
       </c>
@@ -8262,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44118</v>
       </c>
@@ -8303,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>44119</v>
       </c>
@@ -8344,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>44122</v>
       </c>
@@ -8385,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>44125</v>
       </c>
@@ -8426,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>44126</v>
       </c>
@@ -8467,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>44128</v>
       </c>
@@ -8508,7 +9313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44129</v>
       </c>
@@ -8549,7 +9354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44130</v>
       </c>
@@ -8590,7 +9395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44131</v>
       </c>
@@ -8631,7 +9436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44133</v>
       </c>
@@ -8672,7 +9477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44135</v>
       </c>
@@ -8713,7 +9518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44136</v>
       </c>
@@ -8754,7 +9559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44137</v>
       </c>
@@ -8795,7 +9600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44138</v>
       </c>
@@ -8836,7 +9641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44139</v>
       </c>
@@ -8877,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>44140</v>
       </c>
@@ -8918,7 +9723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>44141</v>
       </c>
@@ -8959,7 +9764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>44142</v>
       </c>
@@ -9000,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>44144</v>
       </c>
@@ -9041,7 +9846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44147</v>
       </c>
@@ -9082,7 +9887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44149</v>
       </c>
